--- a/Data/mBasicInt_NonLinear.xlsx
+++ b/Data/mBasicInt_NonLinear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xnh825\Documents\GitHub\EnergyEconomicsE2023\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28833496-7723-4233-88A7-60EC0F70BC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD097580-9723-432E-B630-2E47BDB7B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +913,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H45" sqref="H45:H46"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,15 +1131,15 @@
         <v>61</v>
       </c>
       <c r="B6">
-        <f>SUM(B2:B5)</f>
-        <v>175</v>
+        <f>MAX(B2:B5)</f>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6">
-        <f>MAX(B2:B5)*2</f>
-        <v>120</v>
+        <f>Scalars!B1</f>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>61</v>
